--- a/男宝_20180328.xlsx
+++ b/男宝_20180328.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28315"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/G-Drive/cx/mygit/wangyunpiao/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27300" windowHeight="16540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32460" windowHeight="16540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="女宝" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>收件人</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,24 +138,27 @@
   </si>
   <si>
     <t>冯钰钧</t>
+  </si>
+  <si>
+    <t>记录日期</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -156,7 +167,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -165,7 +176,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -174,9 +185,17 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -305,7 +324,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -340,96 +359,104 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="85">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -758,10 +785,10 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="29.33203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="29.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.5" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.5" style="3" bestFit="1" customWidth="1"/>
@@ -771,12 +798,12 @@
     <col min="6" max="6" width="5.5" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="68.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="29.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -804,8 +831,11 @@
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="30">
+      <c r="J1" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -829,8 +859,11 @@
       <c r="I2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="30">
+      <c r="J2" s="12">
+        <v>43187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -855,8 +888,11 @@
       <c r="I3" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="45">
+      <c r="J3" s="12">
+        <v>43187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -878,8 +914,11 @@
       <c r="I4" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="60">
+      <c r="J4" s="12">
+        <v>43187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
@@ -904,8 +943,11 @@
       <c r="I5" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="12">
+        <v>43187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -913,20 +955,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="4"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="10"/>
       <c r="C9" s="7"/>
@@ -936,57 +978,57 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="4"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="4"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B18" s="4"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:11" s="6" customFormat="1">
+    <row r="20" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
@@ -999,110 +1041,110 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B21" s="4"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B22" s="4"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B23" s="10"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B24" s="4"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B25" s="4"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B26" s="4"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B27" s="4"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B28" s="4"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B29" s="4"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B30" s="4"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B31" s="10"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="K31" s="8"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="4"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="4"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:11">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="4"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:11">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" s="4"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="2:11">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="4"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="2:11">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="4"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="2:11">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="4"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="2:11">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" s="4"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="45" spans="2:11">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K45" s="3">
         <f>SUM(F:F)</f>
         <v>8</v>
@@ -1115,10 +1157,5 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/男宝_20180328.xlsx
+++ b/男宝_20180328.xlsx
@@ -1,33 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28315"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/G-Drive/cx/mygit/wangyunpiao/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32460" windowHeight="16540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="女宝" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>收件人</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,14 +146,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -167,7 +162,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -176,7 +171,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -185,7 +180,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -194,7 +189,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -364,91 +359,91 @@
     </xf>
   </cellXfs>
   <cellStyles count="85">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -782,13 +777,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="29.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="29.33203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="7.5" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.5" style="3" bestFit="1" customWidth="1"/>
@@ -803,7 +798,7 @@
     <col min="11" max="16384" width="29.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -835,7 +830,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="30">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -863,7 +858,7 @@
         <v>43187</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -892,7 +887,7 @@
         <v>43187</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="45">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -918,7 +913,7 @@
         <v>43187</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="60">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
@@ -947,205 +942,197 @@
         <v>43187</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="B6" s="4"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="H6" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5"/>
       <c r="B7" s="4"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="4"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
+      <c r="A8" s="6"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="4"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="B10" s="4"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="B11" s="4"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="B12" s="4"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="B13" s="4"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="B14" s="4"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="B15" s="4"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="B16" s="4"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="B17" s="4"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="B18" s="4"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" s="6" customFormat="1">
+      <c r="A19" s="3"/>
       <c r="B19" s="4"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:11">
       <c r="B21" s="4"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="4"/>
+    <row r="22" spans="1:11">
+      <c r="B22" s="10"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="10"/>
+    <row r="23" spans="1:11">
+      <c r="B23" s="4"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="B24" s="4"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="B25" s="4"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="B26" s="4"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="1:11">
       <c r="B27" s="4"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="K27" s="6"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:11">
       <c r="B28" s="4"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="B29" s="4"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="4"/>
+    <row r="30" spans="1:11">
+      <c r="B30" s="10"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="10"/>
+      <c r="K30" s="8"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="K31" s="8"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:11">
       <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11">
       <c r="B33" s="4"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11">
       <c r="B34" s="4"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11">
       <c r="B35" s="4"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:11">
       <c r="B36" s="4"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11">
       <c r="B37" s="4"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11">
       <c r="B38" s="4"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11">
       <c r="B39" s="4"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B40" s="4"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="K45" s="3">
+    <row r="44" spans="2:11">
+      <c r="K44" s="3">
         <f>SUM(F:F)</f>
         <v>8</v>
       </c>
@@ -1157,5 +1144,10 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>